--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-topk-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="81">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,15 +43,12 @@
     <t>poorly</t>
   </si>
   <si>
-    <t>stopped</t>
+    <t>useless</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -79,67 +76,73 @@
     <t>awesome</t>
   </si>
   <si>
+    <t>pleased</t>
+  </si>
+  <si>
     <t>beautiful</t>
   </si>
   <si>
-    <t>pleased</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>thank</t>
   </si>
   <si>
     <t>salad</t>
   </si>
   <si>
-    <t>perfect</t>
+    <t>happy</t>
   </si>
   <si>
     <t>daughter</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
     <t>christmas</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>wife</t>
+    <t>family</t>
+  </si>
+  <si>
+    <t>cakes</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>cooke</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>cakes</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>potatoes</t>
   </si>
   <si>
     <t>cake</t>
   </si>
   <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>husband</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>rice</t>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>perfectly</t>
   </si>
   <si>
     <t>comfortable</t>
@@ -148,60 +151,51 @@
     <t>gift</t>
   </si>
   <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>perfectly</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>thanks</t>
   </si>
   <si>
     <t>years</t>
   </si>
   <si>
-    <t>pop</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>popcorn</t>
+  </si>
+  <si>
     <t>cooking</t>
   </si>
   <si>
-    <t>pie</t>
+    <t>kitchen</t>
+  </si>
+  <si>
+    <t>cook</t>
   </si>
   <si>
     <t>day</t>
   </si>
   <si>
-    <t>old</t>
+    <t>good</t>
   </si>
   <si>
     <t>tea</t>
   </si>
   <si>
-    <t>kitchen</t>
-  </si>
-  <si>
-    <t>popcorn</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>gr</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
     <t>pan</t>
   </si>
   <si>
-    <t>every</t>
-  </si>
-  <si>
     <t>keeps</t>
   </si>
   <si>
@@ -211,55 +205,52 @@
     <t>works</t>
   </si>
   <si>
+    <t>recommend</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
+    <t>coffee</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>clean</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
     <t>bought</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>recommend</t>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>makes</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>clean</t>
-  </si>
-  <si>
-    <t>coffee</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>one</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
     <t>really</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>used</t>
   </si>
   <si>
     <t>use</t>
@@ -623,7 +614,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -631,10 +622,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -692,13 +683,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -710,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.956989247311828</v>
+        <v>0.967741935483871</v>
       </c>
       <c r="L3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="M3">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -734,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -742,13 +733,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.4150943396226415</v>
+        <v>0.6</v>
       </c>
       <c r="C4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -760,19 +751,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K4">
-        <v>0.90625</v>
+        <v>0.890625</v>
       </c>
       <c r="L4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="M4">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -784,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -792,13 +783,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.2790697674418605</v>
+        <v>0.2558139534883721</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -810,19 +801,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8985507246376812</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="L5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M5">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -834,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -842,13 +833,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2626262626262627</v>
+        <v>0.1567567567567568</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D6">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -860,60 +851,36 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>73</v>
+        <v>156</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.848297213622291</v>
+      </c>
+      <c r="L6">
+        <v>548</v>
+      </c>
+      <c r="M6">
+        <v>548</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K6">
-        <v>0.8452012383900929</v>
-      </c>
-      <c r="L6">
-        <v>546</v>
-      </c>
-      <c r="M6">
-        <v>546</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.1243243243243243</v>
-      </c>
-      <c r="C7">
-        <v>23</v>
-      </c>
-      <c r="D7">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>162</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="K7">
         <v>0.7586206896551724</v>
@@ -939,16 +906,16 @@
     </row>
     <row r="8" spans="1:17">
       <c r="J8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K8">
-        <v>0.7186147186147186</v>
+        <v>0.7359307359307359</v>
       </c>
       <c r="L8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M8">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -960,12 +927,12 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="J9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K9">
         <v>0.7173913043478261</v>
@@ -991,16 +958,16 @@
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7045454545454546</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1012,21 +979,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7012987012987013</v>
+        <v>0.6818181818181818</v>
       </c>
       <c r="L11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="M11">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1038,21 +1005,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.6712328767123288</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L12">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="M12">
-        <v>49</v>
+        <v>199</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1064,21 +1031,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.6610169491525424</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="M13">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1090,21 +1057,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>100</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.6428571428571429</v>
+        <v>0.6438356164383562</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1116,21 +1083,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15">
-        <v>0.6323529411764706</v>
+        <v>0.6342857142857142</v>
       </c>
       <c r="L15">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1142,21 +1109,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>25</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16">
         <v>0.6285714285714286</v>
       </c>
       <c r="L16">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="M16">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1168,21 +1135,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6252006420545746</v>
+        <v>0.6268057784911717</v>
       </c>
       <c r="L17">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="M17">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1194,12 +1161,12 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K18">
         <v>0.625</v>
@@ -1225,16 +1192,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.5915492957746479</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1246,21 +1213,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.5555555555555556</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L20">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1272,21 +1239,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.5384615384615384</v>
+        <v>0.578125</v>
       </c>
       <c r="L21">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="M21">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1298,21 +1265,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>54</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5384615384615384</v>
+        <v>0.5774647887323944</v>
       </c>
       <c r="L22">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1329,16 +1296,16 @@
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.53125</v>
+        <v>0.5470085470085471</v>
       </c>
       <c r="L23">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="M23">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1350,21 +1317,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>30</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5192307692307693</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L24">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="M24">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1376,21 +1343,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>50</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4761904761904762</v>
+        <v>0.5338345864661654</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1402,21 +1369,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>33</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4736842105263158</v>
+        <v>0.5301204819277109</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1428,47 +1395,47 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4730538922155689</v>
+        <v>0.5269461077844312</v>
       </c>
       <c r="L27">
+        <v>88</v>
+      </c>
+      <c r="M27">
+        <v>88</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
         <v>79</v>
-      </c>
-      <c r="M27">
-        <v>79</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>88</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4511278195488722</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="L28">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="M28">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1480,21 +1447,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K29">
-        <v>0.4337349397590362</v>
+        <v>0.4903846153846154</v>
       </c>
       <c r="L29">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="M29">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1506,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K30">
-        <v>0.4313725490196079</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1532,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>0.4262295081967213</v>
+        <v>0.44</v>
       </c>
       <c r="L31">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="M31">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1558,47 +1525,47 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.4342105263157895</v>
+      </c>
+      <c r="L32">
+        <v>33</v>
+      </c>
+      <c r="M32">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q32">
         <v>43</v>
-      </c>
-      <c r="K32">
-        <v>0.4156626506024096</v>
-      </c>
-      <c r="L32">
-        <v>69</v>
-      </c>
-      <c r="M32">
-        <v>69</v>
-      </c>
-      <c r="N32">
-        <v>1</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>97</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>0.41</v>
+        <v>0.4262295081967213</v>
       </c>
       <c r="L33">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M33">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1610,21 +1577,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>59</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K34">
-        <v>0.3947368421052632</v>
+        <v>0.4036144578313253</v>
       </c>
       <c r="L34">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="M34">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1636,21 +1603,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>46</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K35">
-        <v>0.3735408560311284</v>
+        <v>0.3970588235294117</v>
       </c>
       <c r="L35">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="M35">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1662,21 +1629,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>161</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K36">
-        <v>0.3650793650793651</v>
+        <v>0.3909774436090225</v>
       </c>
       <c r="L36">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="M36">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1688,21 +1655,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>40</v>
+        <v>81</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K37">
-        <v>0.3529411764705883</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L37">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="M37">
-        <v>144</v>
+        <v>25</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1714,21 +1681,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>264</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K38">
-        <v>0.3465753424657534</v>
+        <v>0.3709677419354839</v>
       </c>
       <c r="L38">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="M38">
-        <v>253</v>
+        <v>23</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1740,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>477</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K39">
-        <v>0.3423423423423423</v>
+        <v>0.3579766536964981</v>
       </c>
       <c r="L39">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="M39">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1766,21 +1733,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>73</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40">
-        <v>0.3384615384615385</v>
+        <v>0.3232876712328767</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>236</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1792,21 +1759,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>43</v>
+        <v>494</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K41">
-        <v>0.3267326732673267</v>
+        <v>0.3209876543209876</v>
       </c>
       <c r="L41">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1818,47 +1785,47 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K42">
+        <v>0.3026315789473684</v>
+      </c>
+      <c r="L42">
+        <v>23</v>
+      </c>
+      <c r="M42">
+        <v>23</v>
+      </c>
+      <c r="N42">
+        <v>1</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q42">
         <v>53</v>
-      </c>
-      <c r="K42">
-        <v>0.3233082706766917</v>
-      </c>
-      <c r="L42">
-        <v>43</v>
-      </c>
-      <c r="M42">
-        <v>43</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-      <c r="O42">
-        <v>0</v>
-      </c>
-      <c r="P42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q42">
-        <v>90</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K43">
-        <v>0.302158273381295</v>
+        <v>0.2972972972972973</v>
       </c>
       <c r="L43">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M43">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1870,21 +1837,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>97</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K44">
-        <v>0.2966507177033493</v>
+        <v>0.2822966507177033</v>
       </c>
       <c r="L44">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M44">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -1896,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K45">
-        <v>0.2894736842105263</v>
+        <v>0.2685185185185185</v>
       </c>
       <c r="L45">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="M45">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1922,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46">
-        <v>0.2561894510226049</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="L46">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="M46">
-        <v>238</v>
+        <v>27</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -1948,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>691</v>
+        <v>74</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K47">
-        <v>0.2285714285714286</v>
+        <v>0.2669537136706135</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>248</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1974,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>81</v>
+        <v>681</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K48">
-        <v>0.2252252252252252</v>
+        <v>0.2661870503597122</v>
       </c>
       <c r="L48">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M48">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2000,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K49">
-        <v>0.219435736677116</v>
+        <v>0.2507836990595611</v>
       </c>
       <c r="L49">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M49">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2026,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K50">
-        <v>0.2134146341463415</v>
+        <v>0.2251655629139073</v>
       </c>
       <c r="L50">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M50">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2052,21 +2019,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K51">
-        <v>0.1986754966887417</v>
+        <v>0.2122762148337596</v>
       </c>
       <c r="L51">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="M51">
-        <v>30</v>
+        <v>166</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2078,21 +2045,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>121</v>
+        <v>616</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K52">
-        <v>0.1982097186700767</v>
+        <v>0.1920529801324503</v>
       </c>
       <c r="L52">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="M52">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2104,47 +2071,47 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>627</v>
+        <v>610</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K53">
-        <v>0.1880794701986755</v>
+        <v>0.1869918699186992</v>
       </c>
       <c r="L53">
-        <v>142</v>
+        <v>69</v>
       </c>
       <c r="M53">
-        <v>142</v>
+        <v>71</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>613</v>
+        <v>300</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K54">
-        <v>0.1610738255033557</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="L54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M54">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2156,21 +2123,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K55">
-        <v>0.1374570446735395</v>
+        <v>0.1522727272727273</v>
       </c>
       <c r="L55">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="M55">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2182,21 +2149,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>251</v>
+        <v>373</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K56">
-        <v>0.1362530413625304</v>
+        <v>0.1407407407407407</v>
       </c>
       <c r="L56">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="M56">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2208,21 +2175,21 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>355</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K57">
-        <v>0.1355932203389831</v>
+        <v>0.1403508771929824</v>
       </c>
       <c r="L57">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="M57">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2234,21 +2201,21 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>153</v>
+        <v>392</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K58">
-        <v>0.1280788177339902</v>
+        <v>0.127147766323024</v>
       </c>
       <c r="L58">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="M58">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2260,47 +2227,47 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>177</v>
+        <v>254</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K59">
-        <v>0.127027027027027</v>
+        <v>0.1240875912408759</v>
       </c>
       <c r="L59">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M59">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="N59">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>323</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K60">
-        <v>0.1217712177121771</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L60">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="M60">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2312,47 +2279,47 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>238</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K61">
-        <v>0.1134453781512605</v>
+        <v>0.1100478468899522</v>
       </c>
       <c r="L61">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="M61">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q61">
-        <v>211</v>
+        <v>372</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K62">
-        <v>0.1096491228070175</v>
+        <v>0.0959409594095941</v>
       </c>
       <c r="L62">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="M62">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2364,73 +2331,73 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>406</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K63">
-        <v>0.1045454545454545</v>
+        <v>0.08590102707749767</v>
       </c>
       <c r="L63">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="M63">
-        <v>46</v>
+        <v>93</v>
       </c>
       <c r="N63">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q63">
-        <v>394</v>
+        <v>979</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K64">
-        <v>0.1037037037037037</v>
+        <v>0.08464849354375897</v>
       </c>
       <c r="L64">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="M64">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="N64">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q64">
-        <v>242</v>
+        <v>638</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K65">
-        <v>0.1002865329512894</v>
+        <v>0.07103825136612021</v>
       </c>
       <c r="L65">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="M65">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2442,21 +2409,21 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>628</v>
+        <v>340</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K66">
-        <v>0.0954653937947494</v>
+        <v>0.06598984771573604</v>
       </c>
       <c r="L66">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="M66">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2468,47 +2435,47 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>379</v>
+        <v>368</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K67">
-        <v>0.07377049180327869</v>
+        <v>0.05740740740740741</v>
       </c>
       <c r="L67">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M67">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="N67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q67">
-        <v>339</v>
+        <v>509</v>
       </c>
     </row>
     <row r="68" spans="10:17">
       <c r="J68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K68">
-        <v>0.06457564575645756</v>
+        <v>0.04406130268199233</v>
       </c>
       <c r="L68">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="M68">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2520,85 +2487,33 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>507</v>
+        <v>499</v>
       </c>
     </row>
     <row r="69" spans="10:17">
       <c r="J69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K69">
-        <v>0.06091370558375635</v>
+        <v>0.03292894280762565</v>
       </c>
       <c r="L69">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="M69">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q69">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="70" spans="10:17">
-      <c r="J70" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K70">
-        <v>0.06069094304388422</v>
-      </c>
-      <c r="L70">
-        <v>65</v>
-      </c>
-      <c r="M70">
-        <v>66</v>
-      </c>
-      <c r="N70">
-        <v>0.98</v>
-      </c>
-      <c r="O70">
-        <v>0.02000000000000002</v>
-      </c>
-      <c r="P70" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q70">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="71" spans="10:17">
-      <c r="J71" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="K71">
-        <v>0.04079861111111111</v>
-      </c>
-      <c r="L71">
-        <v>47</v>
-      </c>
-      <c r="M71">
-        <v>52</v>
-      </c>
-      <c r="N71">
-        <v>0.9</v>
-      </c>
-      <c r="O71">
-        <v>0.09999999999999998</v>
-      </c>
-      <c r="P71" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q71">
-        <v>1105</v>
+        <v>1116</v>
       </c>
     </row>
   </sheetData>
